--- a/RESULTS/2018/C SET 4 [1.7..2.4] All/Fit .xlsx
+++ b/RESULTS/2018/C SET 4 [1.7..2.4] All/Fit .xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Feature index</t>
   </si>
@@ -96,7 +96,7 @@
     <t>R2 Adjusted Test</t>
   </si>
   <si>
-    <t>21Linear0706011166</t>
+    <t>21Linear0707011166</t>
   </si>
   <si>
     <t>O-H</t>
@@ -111,7 +111,7 @@
     <t>H-H</t>
   </si>
   <si>
-    <t>006111</t>
+    <t>007111</t>
   </si>
   <si>
     <t>21Linear0303010167</t>
@@ -120,10 +120,13 @@
     <t>003101</t>
   </si>
   <si>
-    <t>21Linear0601111166</t>
+    <t>21Linear0504010157</t>
   </si>
   <si>
-    <t>001111</t>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>004101</t>
   </si>
   <si>
     <t>21Linear0505000167</t>
@@ -135,37 +138,37 @@
     <t>005100</t>
   </si>
   <si>
-    <t>005101</t>
-  </si>
-  <si>
     <t>21Linear0404000166</t>
   </si>
   <si>
     <t>004100</t>
   </si>
   <si>
-    <t>004101</t>
+    <t>21Linear0403111167</t>
   </si>
   <si>
-    <t>21Linear0503111167</t>
-  </si>
-  <si>
-    <t>005111</t>
+    <t>004111</t>
   </si>
   <si>
     <t>003111</t>
   </si>
   <si>
-    <t>21Linear0707000167</t>
+    <t>21Linear0606000167</t>
   </si>
   <si>
-    <t>007100</t>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>006101</t>
   </si>
   <si>
     <t>21Linear0503011166</t>
   </si>
   <si>
     <t>21Linear0603111167</t>
+  </si>
+  <si>
+    <t>006111</t>
   </si>
   <si>
     <t>21Linear0306011166</t>
@@ -183,46 +186,28 @@
     <t>21Linear0405011166</t>
   </si>
   <si>
-    <t>21Linear0301000066</t>
+    <t>005111</t>
+  </si>
+  <si>
+    <t>21Linear0301000166</t>
   </si>
   <si>
     <t>003100</t>
   </si>
   <si>
-    <t>001100</t>
+    <t>001101</t>
   </si>
   <si>
     <t>21Linear0707000166</t>
   </si>
   <si>
-    <t>21Linear0604011166</t>
+    <t>007100</t>
   </si>
   <si>
-    <t>006101</t>
+    <t>21Linear0307011166</t>
   </si>
   <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>21Linear0505000166</t>
-  </si>
-  <si>
-    <t>21Linear0502111166</t>
-  </si>
-  <si>
-    <t>21Linear0404000167</t>
-  </si>
-  <si>
-    <t>21Linear0602111166</t>
-  </si>
-  <si>
-    <t>21Linear0705011166</t>
-  </si>
-  <si>
-    <t>21Linear0705111166</t>
-  </si>
-  <si>
-    <t>007111</t>
+    <t>21Linear0605010167</t>
   </si>
   <si>
     <t>21Linear0207011166</t>
@@ -231,37 +216,52 @@
     <t>002101</t>
   </si>
   <si>
-    <t>21Linear0702111166</t>
+    <t>21Linear0706011166</t>
   </si>
   <si>
-    <t>21Linear0703011166</t>
+    <t>21Linear0301000066</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>21Linear0404000167</t>
+  </si>
+  <si>
+    <t>21Linear0302000066</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>21Linear0404000066</t>
+  </si>
+  <si>
+    <t>21Linear0705011166</t>
+  </si>
+  <si>
+    <t>21Linear0505000166</t>
   </si>
   <si>
     <t>21Linear0406011166</t>
   </si>
   <si>
-    <t>21Linear0404011166</t>
+    <t>21Linear0505011166</t>
   </si>
   <si>
     <t>21Linear0202111167</t>
   </si>
   <si>
-    <t>21Linear0202001167</t>
+    <t>21Linear0404011166</t>
   </si>
   <si>
-    <t>002100</t>
+    <t>21Linear0606000166</t>
   </si>
   <si>
-    <t>21Linear0303000166</t>
+    <t>21Linear0303011166</t>
   </si>
   <si>
-    <t>21Linear0202010167</t>
-  </si>
-  <si>
-    <t>21Linear0202111166</t>
-  </si>
-  <si>
-    <t>21Linear0202011166</t>
+    <t>21Linear0707000066</t>
   </si>
   <si>
     <t>21Linear0303000066</t>
@@ -270,25 +270,16 @@
     <t>21Linear0404010166</t>
   </si>
   <si>
-    <t>21Linear0505010166</t>
-  </si>
-  <si>
-    <t>21Linear0606000166</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
     <t>11Linear010055</t>
   </si>
   <si>
     <t>11Linear010155</t>
   </si>
   <si>
-    <t>001101</t>
+    <t>11Linear011155</t>
   </si>
   <si>
-    <t>11Linear011155</t>
+    <t>001111</t>
   </si>
   <si>
     <t>11Linear060055</t>
@@ -727,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -748,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -757,38 +748,38 @@
         <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>10.95823744799199</v>
+        <v>14.8448322803122</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.345689891017601e-07</v>
+        <v>1.36417630911818e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003668364609764958</v>
+        <v>0.0003693475746662186</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8750159008249995</v>
+        <v>0.8732989314632649</v>
       </c>
       <c r="S2" t="n">
-        <v>0.864990438324331</v>
+        <v>0.863135744147484</v>
       </c>
       <c r="T2" t="n">
-        <v>2.109759652146432e-07</v>
+        <v>2.255156835188096e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004593212004846317</v>
+        <v>0.0004748849160784217</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8417392428215266</v>
+        <v>0.8308324704522758</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7698025350131296</v>
+        <v>0.753938138839674</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -832,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09997323808302283</v>
+        <v>-0.09334017585850521</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -849,43 +840,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04172483649471515</v>
+        <v>-0.2425735818555473</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -905,10 +896,10 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-5</v>
@@ -917,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -929,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -938,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>12.48034933059569</v>
+        <v>19.12510047291147</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -961,7 +952,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -982,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -991,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.904491607301734</v>
+        <v>-2.516958765349999</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -1008,22 +999,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -1035,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
         <v>24</v>
@@ -1044,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5626644592272353</v>
+        <v>0.1346898071794153</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1061,35 +1052,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
       <c r="L8" t="n">
         <v>12</v>
       </c>
@@ -1097,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-110.6887343174584</v>
+        <v>-53.805765185032</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -1129,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -1141,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -1150,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.23451585064048</v>
+        <v>-0.8902244178800798</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -1182,7 +1173,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -1194,7 +1185,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" t="n">
         <v>24</v>
@@ -1203,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.086970165355803</v>
+        <v>-0.5483036172389744</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -1223,7 +1214,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1235,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -1256,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.386385417613383</v>
+        <v>1.815345494755768</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -1276,7 +1267,7 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1309,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2591897228844005</v>
+        <v>0.2517645188791557</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -1329,7 +1320,7 @@
         <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1341,7 +1332,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -1353,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -1362,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1830014031699392</v>
+        <v>0.1235473420587816</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -1382,7 +1373,7 @@
         <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1394,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -1406,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
@@ -1415,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.299382032707337</v>
+        <v>-2.72610238863021</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -1432,13 +1423,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>-3</v>
@@ -1447,10 +1438,10 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I15" t="n">
         <v>-1</v>
@@ -1459,16 +1450,16 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02589145692440553</v>
+        <v>-0.01801638769760139</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -1488,10 +1479,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
         <v>-7</v>
@@ -1500,7 +1491,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -1521,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>108.3304426075535</v>
+        <v>86.79502933797509</v>
       </c>
       <c r="O16" t="s"/>
       <c r="P16" t="s"/>
@@ -1625,34 +1616,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L2" t="n">
         <v>24</v>
@@ -1661,32 +1652,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2009997742756689</v>
+        <v>-0.6330485057579233</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.753744559775407e-07</v>
+        <v>1.840412326637299e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004187773346034151</v>
+        <v>0.0004290002711697627</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8371168681212007</v>
+        <v>0.8290673963661952</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8321306497983803</v>
+        <v>0.8238347656427114</v>
       </c>
       <c r="T2" t="n">
-        <v>2.596549367729062e-07</v>
+        <v>2.337837420653808e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005095634766865716</v>
+        <v>0.0004835118840994302</v>
       </c>
       <c r="V2" t="n">
-        <v>0.805223372923066</v>
+        <v>0.8246302985383089</v>
       </c>
       <c r="W2" t="n">
-        <v>0.777398140483504</v>
+        <v>0.7995774840437817</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1730,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.094943523218319</v>
+        <v>-0.08586779954498397</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -1747,43 +1738,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009372994043106125</v>
+        <v>35.01957947720431</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -1803,10 +1794,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -1827,7 +1818,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -1836,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55468857229792</v>
+        <v>1.412821596246282</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -1853,34 +1844,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -1889,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4675473237080818</v>
+        <v>-3.760151368074107</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -1909,7 +1900,7 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1942,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2515632710523768</v>
+        <v>0.2676467053994536</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -2049,7 +2040,7 @@
         <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -2082,32 +2073,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3046597200511791</v>
+        <v>0.3018833550023445</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.112908291888239e-07</v>
+        <v>2.08303061950811e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004596638219273124</v>
+        <v>0.0004564023027448602</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8037586956224029</v>
+        <v>0.8065336543947039</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7987779518564739</v>
+        <v>0.801623341054468</v>
       </c>
       <c r="T2" t="n">
-        <v>2.715905324462979e-07</v>
+        <v>3.543432420296729e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005211434854685396</v>
+        <v>0.000595267370204073</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7962700478050825</v>
+        <v>0.7341942257373361</v>
       </c>
       <c r="W2" t="n">
-        <v>0.772580518480092</v>
+        <v>0.7032865775672589</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2115,34 +2106,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="L3" t="n">
         <v>30</v>
@@ -2151,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0119642562269979</v>
+        <v>-0.04026075245643534</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2168,34 +2159,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>24</v>
@@ -2204,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04674450868723697</v>
+        <v>-0.05292426061486256</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2221,43 +2212,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02199304382954895</v>
+        <v>3993.537359058454</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -2274,34 +2265,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -2310,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.688011266391205</v>
+        <v>-3.392639069881258</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -2417,7 +2408,7 @@
         <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -2450,32 +2441,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3136168395416201</v>
+        <v>0.2530649305371224</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.438120070507794e-07</v>
+        <v>2.526243527618006e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004937732344414584</v>
+        <v>0.0005026175014479705</v>
       </c>
       <c r="R2" t="n">
-        <v>0.77355389029305</v>
+        <v>0.7653692178981508</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7689792214100813</v>
+        <v>0.7606292020981135</v>
       </c>
       <c r="T2" t="n">
-        <v>3.023450488899596e-07</v>
+        <v>4.374111720768771e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005498591173109342</v>
+        <v>0.000661370676759166</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7731999646603988</v>
+        <v>0.6718819453164639</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7525817796295259</v>
+        <v>0.6420530312543242</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2483,43 +2474,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.889615351245332</v>
+        <v>-0.0600249297245615</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2536,43 +2527,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01978145735037384</v>
+        <v>-3.208585197829515</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2589,43 +2580,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0295688201789357</v>
+        <v>4073.312388678191</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -2735,7 +2726,7 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>-3</v>
@@ -2744,10 +2735,10 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
         <v>-3</v>
@@ -2756,7 +2747,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -2765,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5422000223225718</v>
+        <v>0.5422000223225734</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
@@ -2775,19 +2766,19 @@
         <v>0.0005153663897716372</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7533154452170473</v>
+        <v>0.7533154452170472</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7495965825821285</v>
+        <v>0.7495965825821282</v>
       </c>
       <c r="T2" t="n">
         <v>2.72745715840683e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005222506255053057</v>
+        <v>0.0005222506255053056</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7954035026586275</v>
+        <v>0.7954035026586276</v>
       </c>
       <c r="W2" t="n">
         <v>0.7817637361692027</v>
@@ -2798,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>-4</v>
@@ -2813,7 +2804,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -2825,16 +2816,16 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.806338957572424</v>
+        <v>0.8566009065924355</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2851,13 +2842,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>-4</v>
@@ -2866,7 +2857,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -2878,16 +2869,16 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8566009065924352</v>
+        <v>-2.806338957572426</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2991,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>-5</v>
@@ -3018,41 +3009,41 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>2.21427436933018</v>
+        <v>-11.37369054961292</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>3.236221548380444e-07</v>
+        <v>3.313974793485458e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005688779788654544</v>
+        <v>0.0005756713292743923</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6994283470100284</v>
+        <v>0.6922068323339878</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6964226304801286</v>
+        <v>0.6891289006573278</v>
       </c>
       <c r="T2" t="n">
-        <v>3.666474161254015e-07</v>
+        <v>3.375274860371461e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0006055141749995632</v>
+        <v>0.0005809711576637398</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7249644165177662</v>
+        <v>0.7468083368906999</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7130063476707126</v>
+        <v>0.7358000037120347</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3060,43 +3051,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-41.57994541056399</v>
+        <v>0.7319524880781262</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -3191,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3203,7 +3194,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -3248,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -3260,7 +3251,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
@@ -3289,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3301,7 +3292,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
@@ -3330,10 +3321,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -3342,7 +3333,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -3371,10 +3362,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -3383,7 +3374,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -3496,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3517,7 +3508,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -3526,38 +3517,38 @@
         <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>16.84140101448239</v>
+        <v>16.80956425337986</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.371767752879155e-07</v>
+        <v>1.36874627736666e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003703738318076961</v>
+        <v>0.0003699657115688778</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8725938583507771</v>
+        <v>0.8728744849629179</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8631061669513669</v>
+        <v>0.8634076912899437</v>
       </c>
       <c r="T2" t="n">
-        <v>1.937394024688257e-07</v>
+        <v>2.151994780982001e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000440158383390372</v>
+        <v>0.0004638959776697789</v>
       </c>
       <c r="V2" t="n">
-        <v>0.854669016450158</v>
+        <v>0.8385710319486686</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7948268467531643</v>
+        <v>0.7721002803981203</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3601,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.08909005000927314</v>
+        <v>-0.05301006311686669</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -3618,43 +3609,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>590</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.05134326217248628</v>
+        <v>128.4449838709838</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -3674,10 +3665,10 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-5</v>
@@ -3686,7 +3677,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3698,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -3707,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>10.75675903047783</v>
+        <v>7.91319493274545</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -3730,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -3751,7 +3742,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -3760,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.875578868910395</v>
+        <v>-3.095428181511008</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -3777,25 +3768,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
         <v>-3</v>
@@ -3804,16 +3795,16 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5916735551637624</v>
+        <v>-3.828953241168464</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -3830,16 +3821,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3851,22 +3842,22 @@
         <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-86.81035212056037</v>
+        <v>-0.7460097949094013</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -3883,34 +3874,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -3919,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.736394676083465</v>
+        <v>-0.987886188859568</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -3936,16 +3927,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -3954,25 +3945,25 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.117093330602289</v>
+        <v>-2.168299166452054</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -3992,7 +3983,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -4004,7 +3995,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -4025,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.582945985144363</v>
+        <v>8.759398269102299</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -4045,7 +4036,7 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -4078,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2738572278299429</v>
+        <v>0.2679607996467119</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -4098,7 +4089,7 @@
         <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -4110,7 +4101,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -4122,7 +4113,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -4131,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06411774772397294</v>
+        <v>0.1378790015700577</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -4151,7 +4142,7 @@
         <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -4163,7 +4154,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -4175,7 +4166,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
@@ -4184,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.454844562568375</v>
+        <v>-5.53082304329615</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -4201,43 +4192,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>12.9536968799754</v>
+        <v>-0.01889545951372895</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -4344,7 +4335,7 @@
         <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -4368,7 +4359,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -4377,32 +4368,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>18.15968284326278</v>
+        <v>12.06495033833426</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.386879757170753e-07</v>
+        <v>1.38476422941929e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000372408345391286</v>
+        <v>0.0003721242036497075</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8711902955717731</v>
+        <v>0.8713867801645916</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8623303688121595</v>
+        <v>0.8625403682182408</v>
       </c>
       <c r="T2" t="n">
-        <v>2.007938778598262e-07</v>
+        <v>2.172449168835025e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000448100298883884</v>
+        <v>0.0004660953946173492</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8493771974709639</v>
+        <v>0.8370366738022568</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7934315851030361</v>
+        <v>0.7765074383573807</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4446,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09337364403492547</v>
+        <v>-0.05977869382821108</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4463,43 +4454,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>553</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.08334245946674956</v>
+        <v>137.787238076867</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4516,34 +4507,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -4552,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.431303400830722</v>
+        <v>8.35949686061114</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4575,7 +4566,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -4596,7 +4587,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -4605,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.118402465400023</v>
+        <v>-3.152910610757476</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4622,43 +4613,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7435654936335245</v>
+        <v>-0.03422522849815635</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -4675,22 +4666,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -4702,16 +4693,16 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>14.27097144318849</v>
+        <v>-0.7656922339797549</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -4728,34 +4719,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -4764,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-5.276985237718773</v>
+        <v>-1.329669006432319</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -4781,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -4799,25 +4790,25 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.391997883582371</v>
+        <v>-2.20422658228186</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -4837,7 +4828,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -4849,7 +4840,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -4870,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.250245952419378</v>
+        <v>6.05523778272342</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -4890,7 +4881,7 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -4923,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.271518838626897</v>
+        <v>0.2571398322734098</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -4940,34 +4931,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -4976,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6568686954235936</v>
+        <v>0.1940054544075167</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -4996,7 +4987,7 @@
         <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -5008,7 +4999,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -5020,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L14" t="n">
         <v>12</v>
@@ -5029,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.06950929441496</v>
+        <v>-3.972959098689774</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -5136,7 +5127,7 @@
         <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -5160,7 +5151,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -5169,32 +5160,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>18.50840087152139</v>
+        <v>10.8293427558479</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.412591354434819e-07</v>
+        <v>1.400035678863802e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003758445628760404</v>
+        <v>0.0003741705064357427</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8688022707795459</v>
+        <v>0.8699684085437156</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8605160984077277</v>
+        <v>0.8617558869780555</v>
       </c>
       <c r="T2" t="n">
-        <v>1.866290747197555e-07</v>
+        <v>1.985824255981903e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004320058734783075</v>
+        <v>0.0004456258807544623</v>
       </c>
       <c r="V2" t="n">
-        <v>0.860002732317793</v>
+        <v>0.8510360883737</v>
       </c>
       <c r="W2" t="n">
-        <v>0.813336976423724</v>
+        <v>0.8013814511649334</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5238,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09036603234528165</v>
+        <v>-0.09607195013249585</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5255,43 +5246,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1590278952678958</v>
+        <v>101.5768082801983</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5311,10 +5302,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -5335,7 +5326,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -5344,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.472106236884189</v>
+        <v>1.874430722723797</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -5367,7 +5358,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -5388,7 +5379,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -5397,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.247245110852552</v>
+        <v>-2.93569157895733</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5414,43 +5405,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6899468314105821</v>
+        <v>-0.1832384473377988</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5467,13 +5458,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>-5</v>
@@ -5482,19 +5473,19 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -5503,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>14.71783508369687</v>
+        <v>-3.693709516350875</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5520,28 +5511,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
@@ -5556,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-10.95660554159833</v>
+        <v>-1.240136523313025</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5573,16 +5564,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -5591,25 +5582,25 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.324248898184472</v>
+        <v>-2.001622104183095</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5629,7 +5620,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -5641,7 +5632,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -5662,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.643846462097937</v>
+        <v>5.497609429135236</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5682,7 +5673,7 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -5715,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2749238475627864</v>
+        <v>0.2782458439920887</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -5732,35 +5723,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>551</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
       <c r="L13" t="n">
         <v>12</v>
       </c>
@@ -5768,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.448878370933244</v>
+        <v>0.174739247505201</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -5875,7 +5866,7 @@
         <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -5899,7 +5890,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -5908,32 +5899,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>23.84836829162341</v>
+        <v>22.60721401886829</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.469877081644545e-07</v>
+        <v>1.479352672029436e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003833897601194566</v>
+        <v>0.0003846235395850644</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8634817247468503</v>
+        <v>0.8626016571054775</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8556194157008573</v>
+        <v>0.8546886635356359</v>
       </c>
       <c r="T2" t="n">
-        <v>1.604769501679894e-07</v>
+        <v>1.853983083922371e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004005957440712388</v>
+        <v>0.000430579038496113</v>
       </c>
       <c r="V2" t="n">
-        <v>0.879620393643231</v>
+        <v>0.8609259749758117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.843831862023651</v>
+        <v>0.8195796432118638</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5977,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07085725672599727</v>
+        <v>-0.09617509529230836</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5994,34 +5985,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -6030,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.401831376301616</v>
+        <v>104.3414983466465</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6050,10 +6041,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -6074,7 +6065,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -6083,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.38518860249372</v>
+        <v>2.060138420255304</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6106,7 +6097,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -6127,7 +6118,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -6136,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.99268799815778</v>
+        <v>-2.73706694240468</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6153,43 +6144,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.784917316081273</v>
+        <v>-5.301831687884213</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6206,13 +6197,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>-5</v>
@@ -6221,19 +6212,19 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -6242,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>16.51377592285471</v>
+        <v>-3.875295736543251</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6262,7 +6253,7 @@
         <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -6286,7 +6277,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -6295,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.86044274755496</v>
+        <v>-14.02127937341548</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -6315,7 +6306,7 @@
         <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -6327,7 +6318,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -6339,7 +6330,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
         <v>12</v>
@@ -6348,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.645728998720156</v>
+        <v>-2.035111907642654</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -6368,7 +6359,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -6380,7 +6371,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -6401,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>4.951900097872551</v>
+        <v>5.690542958989063</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -6421,7 +6412,7 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -6454,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3054907333376877</v>
+        <v>0.2743421997644833</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -6561,7 +6552,7 @@
         <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -6585,7 +6576,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -6594,32 +6585,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>22.17848630287671</v>
+        <v>28.11820647523356</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.508442115987675e-07</v>
+        <v>4.950014683591554e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003883866779367793</v>
+        <v>0.0007035634074901532</v>
       </c>
       <c r="R2" t="n">
-        <v>0.85989990689327</v>
+        <v>0.5402557972224349</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8526030270439612</v>
+        <v>0.5163107866611034</v>
       </c>
       <c r="T2" t="n">
-        <v>1.826259757732883e-07</v>
+        <v>8.131246742817952e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004273476053206433</v>
+        <v>0.0009017342592370521</v>
       </c>
       <c r="V2" t="n">
-        <v>0.863005602666952</v>
+        <v>0.390045560396352</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8269544454740447</v>
+        <v>0.2295312341848657</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6663,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07173331019518578</v>
+        <v>-0.161351177559078</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6680,34 +6671,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -6716,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.575057778488569</v>
+        <v>-175.784160457073</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6736,10 +6727,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -6760,7 +6751,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -6769,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.429328338217466</v>
+        <v>2.748822100863634</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6792,7 +6783,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -6813,7 +6804,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -6822,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.696155692284044</v>
+        <v>2.871953231943897</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6839,43 +6830,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L7" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2947202277352324</v>
+        <v>-6.706696552118262</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6892,13 +6883,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>-5</v>
@@ -6907,19 +6898,19 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -6928,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>15.40970478504562</v>
+        <v>-0.4172517525772305</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6948,7 +6939,7 @@
         <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -6972,7 +6963,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -6981,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.65190000317069</v>
+        <v>-15.64296939563504</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7001,7 +6992,7 @@
         <v>631</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -7013,7 +7004,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -7025,7 +7016,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
         <v>12</v>
@@ -7034,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.855787889484728</v>
+        <v>0.9867406422604303</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -7054,7 +7045,7 @@
         <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -7066,7 +7057,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -7087,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.199672908489158</v>
+        <v>-0.6788376907265722</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -7191,13 +7182,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>637</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>-7</v>
@@ -7206,53 +7197,53 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3617501645079435</v>
+        <v>21.51080652346565</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.571868483871533e-07</v>
+        <v>1.637649330245474e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003964679664073169</v>
+        <v>0.0004046788022920739</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8540090344814162</v>
+        <v>0.8478994843674602</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8472011656230366</v>
+        <v>0.8408067142084299</v>
       </c>
       <c r="T2" t="n">
-        <v>1.605082171988143e-07</v>
+        <v>2.08876613665214e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004006347678357612</v>
+        <v>0.0004570302108889673</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8795969391043785</v>
+        <v>0.8433140428963051</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8518116173592352</v>
+        <v>0.8071557451031447</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7296,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07200447481172242</v>
+        <v>-0.07716671069965619</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7313,13 +7304,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>-5</v>
@@ -7328,19 +7319,19 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -7349,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.363608926571092</v>
+        <v>11.69310559450468</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7369,10 +7360,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -7393,7 +7384,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -7402,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.321891042849472</v>
+        <v>1.428307776984123</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7425,7 +7416,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -7446,7 +7437,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -7455,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.840305240918487</v>
+        <v>-4.767746225065811</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7475,7 +7466,7 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -7508,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3070692081433969</v>
+        <v>0.2845347280400933</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -7525,13 +7516,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>-5</v>
@@ -7540,19 +7531,19 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -7561,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>15.82164871877139</v>
+        <v>-2.578252012333171</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -7578,10 +7569,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -7599,13 +7590,13 @@
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -7614,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.4629431537586092</v>
+        <v>-12.9058467008501</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7631,10 +7622,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -7646,19 +7637,19 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L10" t="n">
         <v>12</v>
@@ -7667,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.546557188323808</v>
+        <v>4.354624832910234</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -7771,34 +7762,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>-6</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-4</v>
-      </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
@@ -7807,32 +7798,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>4.200365327974317</v>
+        <v>16.51118877187312</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.712706615328719e-07</v>
+        <v>1.748298418083875e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004138485973552066</v>
+        <v>0.0004181265858665143</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8409283632902581</v>
+        <v>0.8376226912813797</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8343687081682069</v>
+        <v>0.8309267197878283</v>
       </c>
       <c r="T2" t="n">
-        <v>2.064064859439727e-07</v>
+        <v>2.098187185552728e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004543198058020062</v>
+        <v>0.0004580597325188853</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8451669756846132</v>
+        <v>0.84260733569821</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8142003708215358</v>
+        <v>0.811128802837852</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7876,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07657278932105273</v>
+        <v>-0.08143744023726568</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7893,13 +7884,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>-5</v>
@@ -7908,19 +7899,19 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -7929,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.494086896118321</v>
+        <v>12.26610645799361</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7949,10 +7940,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -7973,7 +7964,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -7982,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.423008725694672</v>
+        <v>1.42305043720031</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -8005,7 +7996,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -8026,7 +8017,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -8035,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.753399540840045</v>
+        <v>-4.837820500850703</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -8055,7 +8046,7 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -8088,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2812532110773003</v>
+        <v>0.2754854804584683</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -8105,13 +8096,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
         <v>-5</v>
@@ -8120,10 +8111,10 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
         <v>-5</v>
@@ -8132,16 +8123,16 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>11.73017653115444</v>
+        <v>-0.7981928249750846</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -8158,10 +8149,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -8179,13 +8170,13 @@
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
         <v>12</v>
@@ -8194,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5684359766182493</v>
+        <v>-7.67466178425392</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -8298,34 +8289,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
         <v>24</v>
@@ -8334,14 +8325,14 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1690826928035642</v>
+        <v>0.004502164266200289</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
         <v>1.750765840564003e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004184215387099477</v>
+        <v>0.0004184215387099478</v>
       </c>
       <c r="R2" t="n">
         <v>0.8373935236417761</v>
@@ -8350,16 +8341,16 @@
         <v>0.8315563680801988</v>
       </c>
       <c r="T2" t="n">
-        <v>2.544277404875317e-07</v>
+        <v>2.544277404875265e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005044083073141557</v>
+        <v>0.0005044083073141505</v>
       </c>
       <c r="V2" t="n">
-        <v>0.809144483278941</v>
+        <v>0.8091444832789449</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7765593950582723</v>
+        <v>0.776559395058277</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -8403,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1157036020704689</v>
+        <v>-0.1157036020704691</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -8420,43 +8411,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004502164266200287</v>
+        <v>12.79147664293221</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -8476,10 +8467,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -8500,7 +8491,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>12</v>
@@ -8509,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.805842680116926</v>
+        <v>1.805842680116937</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -8532,7 +8523,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -8553,7 +8544,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
         <v>12</v>
@@ -8562,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.451902943758878</v>
+        <v>-4.451902943758894</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -8582,7 +8573,7 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -8615,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2351372382121295</v>
+        <v>0.2351372382121281</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -8632,43 +8623,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>12.79147664293217</v>
+        <v>-0.1690826928035639</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
